--- a/CONTROL.xlsx
+++ b/CONTROL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6930"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Minicomponente de audio (Altavoces Bluetooth)</t>
   </si>
   <si>
-    <t>Genera una lista de preguntas relacionadas con la disponibilidad de un producto específico . Las preguntas deben estar formuladas usando verbos variados en singular y plural, incluir algunos frases con precios  esto con el fin de entender la intención de consultardel cliente queriedo pregjntar  si el producto está disponible. Incluye preguntas que mencionen características específicas del producto, como colores, tamaños, presentaciones o ediciones especiales, marcas, importante cada frase debe obligatoriamente conetner el nombre del tipo de producto que se pida generar, recuerda garantizar la variedad en las referencias existentes del producto.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -234,6 +231,17 @@
   </si>
   <si>
     <t>Trajes de baño para mujer</t>
+  </si>
+  <si>
+    <t>"Genera una lista de preguntas que un cliente podría hacer sobre un producto de esmalte semipermanente. Incluye preguntas sobre la disponibilidad, el stock y los diferentes tipos del producto, así como consultas sobre las características del producto, como las variaciones de color, tamaños y requisitos de aplicación. Además, incluye preguntas informales que un cliente podría hacer al preguntar sobre este producto. Las preguntas deben cubrir temas como:
+Disponibilidad para la venta
+Stock e inventario
+Opciones de color
+Tamaños y accesorios del producto
+Duración y características especiales
+Proceso de aplicación (si se necesita lámpara UV/LED, preocupaciones de sensibilidad)
+Precio y límites de compra por cantidad
+El tono de las preguntas debe variar desde formal hasta informal, con algunas preguntas que incluyan errores ortográficos o gramaticales leves para reflejar una consulta más casual de un cliente."</t>
   </si>
 </sst>
 </file>
@@ -293,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,6 +315,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -898,12 +909,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -913,12 +924,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -933,17 +944,17 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -959,16 +970,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="G1" t="s">
-        <v>60</v>
+      <c r="G1" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,7 +1073,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
